--- a/branches/master/StructureDefinition-CardInfo.xlsx
+++ b/branches/master/StructureDefinition-CardInfo.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -288,9 +288,6 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -311,27 +308,31 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Extension.extension:CardInfoType</t>
-  </si>
-  <si>
-    <t>CardInfoType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {card-type}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension:CardCountry</t>
-  </si>
-  <si>
-    <t>CardCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {card-country}
-</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
+    <t>Extension.extension:card-type</t>
+  </si>
+  <si>
+    <t>card-type</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-type.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -347,20 +348,54 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:card-type.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-country</t>
+  </si>
+  <si>
+    <t>card-country</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-country.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-country.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-country.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:card-country.value[x]</t>
   </si>
   <si>
     <t>base64Binary
 booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
 </sst>
 </file>
@@ -688,7 +723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -697,9 +732,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="41.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1067,28 +1102,28 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1127,19 +1162,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1159,26 +1194,26 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
@@ -1187,13 +1222,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1244,7 +1279,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1264,14 +1299,12 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
         <v>76</v>
       </c>
@@ -1292,13 +1325,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1349,13 +1382,13 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
@@ -1364,15 +1397,15 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1380,10 +1413,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1395,24 +1428,22 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>76</v>
@@ -1442,25 +1473,25 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
@@ -1469,15 +1500,15 @@
         <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1485,10 +1516,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1500,22 +1531,24 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1560,23 +1593,849 @@
         <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
+      <c r="G9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>107</v>
       </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK8">
+  <autoFilter ref="A1:AK16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1586,7 +2445,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-CardInfo.xlsx
+++ b/branches/master/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
